--- a/Lab4-series2.xlsx
+++ b/Lab4-series2.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Lab4-series2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -628,7 +628,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -1592,11 +1592,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="476412376"/>
-        <c:axId val="476412768"/>
+        <c:axId val="508138760"/>
+        <c:axId val="508139152"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="476412376"/>
+        <c:axId val="508138760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1638,7 +1638,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="476412768"/>
+        <c:crossAx val="508139152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1646,7 +1646,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="476412768"/>
+        <c:axId val="508139152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1697,7 +1697,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="476412376"/>
+        <c:crossAx val="508138760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1819,7 +1819,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -2774,11 +2774,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="488998920"/>
-        <c:axId val="488998528"/>
+        <c:axId val="508139936"/>
+        <c:axId val="508140328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="488998920"/>
+        <c:axId val="508139936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2820,7 +2820,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="488998528"/>
+        <c:crossAx val="508140328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2828,7 +2828,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="488998528"/>
+        <c:axId val="508140328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2879,7 +2879,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="488998920"/>
+        <c:crossAx val="508139936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2998,7 +2998,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -3932,11 +3932,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="474423744"/>
-        <c:axId val="474422176"/>
+        <c:axId val="498976296"/>
+        <c:axId val="498976688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="474423744"/>
+        <c:axId val="498976296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3978,7 +3978,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474422176"/>
+        <c:crossAx val="498976688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3986,7 +3986,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="474422176"/>
+        <c:axId val="498976688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4037,7 +4037,1191 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474423744"/>
+        <c:crossAx val="498976296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Lab4-series2'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>x</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Lab4-series2'!$B$2:$B$312</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="311"/>
+                <c:pt idx="0">
+                  <c:v>5.5439999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.5549999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.1719999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.8780000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.851</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.6859999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.1269999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.968</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.2149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.2489999999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.5039999999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.6639999999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.83</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.1210000000000004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.0970000000000004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.6390000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.9989999999999997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.95</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.0549999999999997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.8639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.8440000000000003</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.9169999999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.109</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.4779999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8.6769999999999996</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.9260000000000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8.4949999999999992</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.9630000000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.3070000000000004</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8.7230000000000008</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8.8490000000000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8.4969999999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.49</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8.0950000000000006</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.1690000000000005</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.1460000000000008</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.0410000000000004</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8.83</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8.1989999999999998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7.66</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7.63</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>7.7009999999999996</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>7.7450000000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>7.3869999999999996</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>7.2919999999999998</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>7.33</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>7.1379999999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7.101</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>8.1240000000000006</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>7.9930000000000003</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>7.7149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>7.0990000000000002</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>6.69</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6.7990000000000004</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>6.9740000000000002</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>6.5549999999999997</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>6.2619999999999996</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>6.11</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.9050000000000002</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.7009999999999996</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6.8579999999999997</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.6390000000000002</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6.4630000000000001</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.3239999999999998</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.2060000000000004</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.2030000000000003</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.5339999999999998</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.282</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.1449999999999996</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>5.8460000000000001</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>5.8440000000000003</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5.8879999999999999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>6.8410000000000002</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>6.7039999999999997</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>6.6680000000000001</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>6.2569999999999997</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>6.2430000000000003</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>5.9509999999999996</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>6.3680000000000003</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>5.726</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>5.6580000000000004</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>5.6079999999999997</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>5.7859999999999996</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>5.8369999999999997</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>6.91</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>6.8319999999999999</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>6.617</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>6.0229999999999997</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>5.9509999999999996</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>6.14</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>6.2480000000000002</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>5.875</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>5.8239999999999998</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>5.492</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>5.266</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>6.2370000000000001</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>6.1609999999999996</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>5.98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>5.0590000000000002</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>4.9870000000000001</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>5.0369999999999999</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>5.2850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>4.8940000000000001</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>4.9139999999999997</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>4.8230000000000004</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>4.7080000000000002</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>4.6559999999999997</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>5.4710000000000001</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>5.6210000000000004</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>5.2329999999999997</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>4.9080000000000004</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>4.7169999999999996</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>5.024</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>5.2510000000000003</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>4.7549999999999999</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>4.7510000000000003</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>4.452</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>4.2969999999999997</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>4.1399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>4.9470000000000001</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>4.9290000000000003</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>4.6520000000000001</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>4.0010000000000003</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>4.0890000000000004</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>4.0229999999999997</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>4.3490000000000002</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>4.2149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>4.0209999999999999</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>3.8820000000000001</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>3.9580000000000002</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>3.76</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>4.5640000000000001</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>4.4669999999999996</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>4.2830000000000004</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>3.9380000000000002</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>3.8839999999999999</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>4.2389999999999999</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>4.742</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>4.7969999999999997</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>5.0919999999999996</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>5.391</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>5.59</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>6.5359999999999996</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>6.492</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>6.37</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>5.9710000000000001</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>5.7690000000000001</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>5.9130000000000003</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>6.0460000000000003</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>5.7009999999999996</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>5.5650000000000004</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>5.6719999999999997</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>5.9820000000000002</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>6.0170000000000003</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>6.7889999999999997</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>6.6420000000000003</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>6.3179999999999996</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>5.98</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>5.9489999999999998</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>6.367</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>6.38</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>6.0819999999999999</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>6.117</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>5.98</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>6.0060000000000002</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>5.7690000000000001</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>6.7329999999999997</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>6.4550000000000001</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>6.3819999999999997</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>5.59</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>5.3410000000000002</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>5.5990000000000002</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>5.6369999999999996</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>5.1050000000000004</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>4.9829999999999997</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>4.8449999999999998</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>4.8019999999999996</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>4.8449999999999998</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>5.3769999999999998</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>5.4980000000000002</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>4.8970000000000002</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>4.585</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>4.5759999999999996</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>4.6950000000000003</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>4.9619999999999997</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>4.5339999999999998</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>4.8849999999999998</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>4.6390000000000002</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>4.9279999999999999</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>4.5890000000000004</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>5.0529999999999999</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>5.2670000000000003</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>4.8970000000000002</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>4.6059999999999999</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>4.4770000000000003</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>4.5060000000000002</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>4.8949999999999996</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>4.4379999999999997</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>4.2190000000000003</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>3.8519999999999999</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>4.0250000000000004</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>3.887</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>4.8339999999999996</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>4.7220000000000004</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>4.298</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>4.1109999999999998</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>4.109</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>4.3780000000000001</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>4.8040000000000003</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>4.3899999999999997</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>4.3550000000000004</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>4.2549999999999999</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>4.2759999999999998</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>4.5759999999999996</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>5.3079999999999998</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>5.2629999999999999</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>5.056</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>4.5119999999999996</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>4.9039999999999999</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>5.07</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>5.4649999999999999</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>5.5019999999999998</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>5.4729999999999999</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>5.5449999999999999</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>5.8010000000000002</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>6.4080000000000004</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>7.6849999999999996</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>8.2080000000000002</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>8.2200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>7.8170000000000002</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>8.1359999999999992</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>8.5500000000000007</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>8.7690000000000001</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>8.6340000000000003</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>8.7490000000000006</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>8.7609999999999992</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>8.5839999999999996</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>8.7929999999999993</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>9.5909999999999993</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>9.5060000000000002</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>9.2080000000000002</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>8.5839999999999996</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>8.3979999999999997</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>8.5220000000000002</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>8.8339999999999996</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>8.5410000000000004</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>8.3940000000000001</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>8.2880000000000003</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>8.4819999999999993</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>8.2949999999999999</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>9.0500000000000007</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>8.9179999999999993</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>8.4819999999999993</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>8.0060000000000002</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>8.0660000000000007</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>8.4139999999999997</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>8.6240000000000006</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>8.3559999999999999</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>8.3940000000000001</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>8.3030000000000008</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>8.1639999999999997</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>8.3249999999999993</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>9.125</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>9.2509999999999994</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>8.8580000000000005</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>8.3230000000000004</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>8.4909999999999997</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>8.7970000000000006</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>9.0719999999999992</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>8.5660000000000007</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>8.1199999999999992</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>8.109</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>7.8840000000000003</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>8.0990000000000002</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>9.0060000000000002</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>8.5950000000000006</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>7.9969999999999999</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>7.4729999999999999</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>7.5739999999999998</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>7.883</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>7.92</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>7.5679999999999996</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>7.3440000000000003</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>6.8230000000000004</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>6.5860000000000003</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>7.2930000000000001</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>7.4039999999999999</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>7.0110000000000001</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>6.048</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>6.2080000000000002</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>6.2009999999999996</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>6.5670000000000002</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>6.194</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>5.8369999999999997</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>5.6980000000000004</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>5.6680000000000001</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>5.4980000000000002</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>6.4489999999999998</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>6.4249999999999998</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>5.9290000000000003</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>5.5359999999999996</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>5.4720000000000004</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>5.24</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>5.5460000000000003</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>5.0780000000000003</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>4.907</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>4.5990000000000002</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>4.681</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="473802480"/>
+        <c:axId val="473801696"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="473802480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="473801696"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="473801696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="473802480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4167,6 +5351,46 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5754,20 +6978,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>87312</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>460375</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>163512</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5788,16 +7528,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>96837</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>173037</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5818,16 +7558,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>141287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>26987</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5841,6 +7581,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>111125</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>460375</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6114,8 +7884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E312"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E2" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
